--- a/converted_files/834/834-all-files.xlsx
+++ b/converted_files/834/834-all-files.xlsx
@@ -2170,7 +2170,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46ddb</t>
+          <t>690141ea7c0fb18b0499fdb3</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
@@ -2690,7 +2690,7 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46dec</t>
+          <t>690141ea7c0fb18b0499fdcc</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
@@ -3214,7 +3214,7 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46dfb</t>
+          <t>690141ea7c0fb18b0499fde3</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -3724,7 +3724,7 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e49</t>
+          <t>690141ea7c0fb18b0499fe3f</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
@@ -4322,7 +4322,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e4a</t>
+          <t>690141ea7c0fb18b0499fe40</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -4920,7 +4920,7 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e4b</t>
+          <t>690141ea7c0fb18b0499fe41</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -5518,7 +5518,7 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e4c</t>
+          <t>690141ea7c0fb18b0499fe42</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -6116,7 +6116,7 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e66</t>
+          <t>690141ea7c0fb18b0499fe64</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -6708,7 +6708,7 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e66</t>
+          <t>690141ea7c0fb18b0499fe64</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -7284,7 +7284,7 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46e66</t>
+          <t>690141ea7c0fb18b0499fe64</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -7860,7 +7860,7 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46eef</t>
+          <t>690141ea7c0fb18b0499fef9</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -9090,7 +9090,7 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46eef</t>
+          <t>690141ea7c0fb18b0499fef9</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46ef0</t>
+          <t>690141ea7c0fb18b0499fefa</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -10764,7 +10764,7 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46ef1</t>
+          <t>690141ea7c0fb18b0499fefb</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
@@ -11356,7 +11356,7 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46f02</t>
+          <t>690141ea7c0fb18b0499ff14</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -11884,7 +11884,7 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46f12</t>
+          <t>690141ea7c0fb18b0499ff2c</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
@@ -12408,7 +12408,7 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46f26</t>
+          <t>690141ea7c0fb18b0499ff48</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -12956,7 +12956,7 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46f37</t>
+          <t>690141ea7c0fb18b0499ff61</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
@@ -13502,7 +13502,7 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>685d5721e29351212dc46f48</t>
+          <t>690141ea7c0fb18b0499ff7a</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
